--- a/Project Risks Issues Register.xlsx
+++ b/Project Risks Issues Register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlackDragoon\Desktop\PROJECT\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAB12698-552F-406A-A0F3-E961BCDD39F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F144BFD-53E2-44B5-BDEA-056B7FAE428C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="2730" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risk Register" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>Date Raised</t>
   </si>
@@ -175,6 +175,21 @@
   </si>
   <si>
     <t>Having no internet can result in missing important milestones for your work</t>
+  </si>
+  <si>
+    <t>Buy a phone and hotspot. Go to a food outlet and use their free internet service like McDonalds or go to library.</t>
+  </si>
+  <si>
+    <t>Missing days on working on your project especially if the pandemic is  Covid</t>
+  </si>
+  <si>
+    <t>Try and get the team to do zoom meetings and share your work through one drive until pandemic is over</t>
+  </si>
+  <si>
+    <t>Buy a laptop or hire a laptop from a rental service.</t>
+  </si>
+  <si>
+    <t>Having no access to a laptop can result in not completing your work for the project</t>
   </si>
 </sst>
 </file>
@@ -483,6 +498,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -540,34 +583,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -975,7 +990,7 @@
   <dimension ref="A1:AW50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1079,9 @@
         <f>IFERROR(INDEX('Risk Matrix'!$C$6:$G$10,MATCH('Risk Register'!E3,'Risk Matrix'!$B$6:$B$10,0),MATCH('Risk Register'!F3,'Risk Matrix'!$C$5:$G$5,0)),"")</f>
         <v>High</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="2" t="s">
@@ -1078,7 +1095,9 @@
       <c r="B4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
@@ -1089,7 +1108,9 @@
         <f>IFERROR(INDEX('Risk Matrix'!$C$6:$G$10,MATCH('Risk Register'!E4,'Risk Matrix'!$B$6:$B$10,0),MATCH('Risk Register'!F4,'Risk Matrix'!$C$5:$G$5,0)),"")</f>
         <v>High</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="2" t="s">
@@ -1103,7 +1124,9 @@
       <c r="B5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E5" s="19" t="s">
         <v>11</v>
       </c>
@@ -1114,7 +1137,9 @@
         <f>IFERROR(INDEX('Risk Matrix'!$C$6:$G$10,MATCH('Risk Register'!E5,'Risk Matrix'!$B$6:$B$10,0),MATCH('Risk Register'!F5,'Risk Matrix'!$C$5:$G$5,0)),"")</f>
         <v>High</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="2" t="s">
@@ -3489,41 +3514,41 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:I5 K5">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>IF($K5="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Extreme">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Extreme">
       <formula>NOT(ISERROR(SEARCH("Extreme",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="moderate">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="moderate">
       <formula>NOT(ISERROR(SEARCH("moderate",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:D5">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>IF($K5="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>IF($J5="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>IF($K5="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>IF($K6="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4034,16 +4059,16 @@
     <row r="11" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="C6:G10">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Extreme">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Extreme">
       <formula>NOT(ISERROR(SEARCH("Extreme",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Moderate">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Moderate">
       <formula>NOT(ISERROR(SEARCH("Moderate",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
